--- a/escala_medianeira.xlsx
+++ b/escala_medianeira.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lfeli\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F315FB9A-E569-43B2-BC21-C235E2844E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{485E0D4F-4435-426F-AB13-A7454555804B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="66">
   <si>
     <t>Data</t>
   </si>
@@ -200,6 +200,24 @@
   </si>
   <si>
     <t>Mariana Lopes, Maria Oliveira, Fernando Rocha, Sônia Ferreira</t>
+  </si>
+  <si>
+    <t>Credência</t>
+  </si>
+  <si>
+    <t>Mario</t>
+  </si>
+  <si>
+    <t>Jorge</t>
+  </si>
+  <si>
+    <t>José</t>
+  </si>
+  <si>
+    <t>Carlos</t>
+  </si>
+  <si>
+    <t>Simone</t>
   </si>
 </sst>
 </file>
@@ -562,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -573,11 +591,12 @@
     <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="53" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -588,13 +607,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -605,13 +627,16 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -622,13 +647,16 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -639,13 +667,16 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -656,13 +687,16 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -673,13 +707,16 @@
         <v>7</v>
       </c>
       <c r="D6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -690,13 +727,16 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -707,13 +747,16 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" t="s">
         <v>25</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -724,13 +767,16 @@
         <v>28</v>
       </c>
       <c r="D9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -741,13 +787,16 @@
         <v>30</v>
       </c>
       <c r="D10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" t="s">
         <v>8</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -758,13 +807,16 @@
         <v>30</v>
       </c>
       <c r="D11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" t="s">
         <v>18</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -775,13 +827,16 @@
         <v>33</v>
       </c>
       <c r="D12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" t="s">
         <v>11</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -792,13 +847,16 @@
         <v>35</v>
       </c>
       <c r="D13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" t="s">
         <v>25</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -809,13 +867,16 @@
         <v>23</v>
       </c>
       <c r="D14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" t="s">
         <v>11</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -826,13 +887,16 @@
         <v>7</v>
       </c>
       <c r="D15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" t="s">
         <v>18</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -843,13 +907,16 @@
         <v>7</v>
       </c>
       <c r="D16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" t="s">
         <v>11</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -860,13 +927,16 @@
         <v>7</v>
       </c>
       <c r="D17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" t="s">
         <v>8</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -877,13 +947,16 @@
         <v>7</v>
       </c>
       <c r="D18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" t="s">
         <v>44</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -894,13 +967,16 @@
         <v>7</v>
       </c>
       <c r="D19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" t="s">
         <v>11</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -911,13 +987,16 @@
         <v>7</v>
       </c>
       <c r="D20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" t="s">
         <v>8</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -928,13 +1007,16 @@
         <v>23</v>
       </c>
       <c r="D21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" t="s">
         <v>11</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>49</v>
       </c>
@@ -945,13 +1027,16 @@
         <v>23</v>
       </c>
       <c r="D22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" t="s">
         <v>11</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -962,13 +1047,16 @@
         <v>28</v>
       </c>
       <c r="D23" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" t="s">
         <v>8</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>52</v>
       </c>
@@ -979,13 +1067,16 @@
         <v>30</v>
       </c>
       <c r="D24" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" t="s">
         <v>18</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -996,13 +1087,16 @@
         <v>30</v>
       </c>
       <c r="D25" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" t="s">
         <v>11</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -1013,13 +1107,16 @@
         <v>33</v>
       </c>
       <c r="D26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" t="s">
         <v>11</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -1030,13 +1127,16 @@
         <v>35</v>
       </c>
       <c r="D27" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" t="s">
         <v>11</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -1047,9 +1147,12 @@
         <v>23</v>
       </c>
       <c r="D28" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" t="s">
         <v>58</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>59</v>
       </c>
     </row>

--- a/escala_medianeira.xlsx
+++ b/escala_medianeira.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lfeli\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA44405E-94CA-4BF8-9E9D-692F8BD9163A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D01F69-68E6-43C8-A82B-3E88A5392EF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -287,9 +287,6 @@
     <t>Tone, Cristina Souza, Irmã Neuza, Marlene</t>
   </si>
   <si>
-    <t>Danyelle , Fábio</t>
-  </si>
-  <si>
     <t>Andreia, Denise</t>
   </si>
   <si>
@@ -308,9 +305,6 @@
     <t>Iolanda</t>
   </si>
   <si>
-    <t>Fábio, Danyelle, Antônio , Denise</t>
-  </si>
-  <si>
     <t>Sueli</t>
   </si>
   <si>
@@ -354,6 +348,12 @@
   </si>
   <si>
     <t>Luan, Bruno, Claisa, Guilherme</t>
+  </si>
+  <si>
+    <t>Danyella , Fábio</t>
+  </si>
+  <si>
+    <t>Fábio, Danyella, Antônio , Denise</t>
   </si>
 </sst>
 </file>
@@ -498,10 +498,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -791,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1663,7 +1659,7 @@
         <v>23</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>27</v>
@@ -1687,7 +1683,7 @@
         <v>26</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>27</v>
@@ -1711,7 +1707,7 @@
         <v>22</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>36</v>
@@ -1735,7 +1731,7 @@
         <v>23</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>27</v>
@@ -1759,7 +1755,7 @@
         <v>22</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>37</v>
@@ -1783,7 +1779,7 @@
         <v>21</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>27</v>
@@ -1831,7 +1827,7 @@
         <v>26</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>27</v>
@@ -1855,7 +1851,7 @@
         <v>6</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>38</v>
@@ -1879,7 +1875,7 @@
         <v>18</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>27</v>
@@ -1903,7 +1899,7 @@
         <v>6</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>27</v>
@@ -1927,7 +1923,7 @@
         <v>19</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>39</v>
@@ -1951,7 +1947,7 @@
         <v>6</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>27</v>
@@ -1975,7 +1971,7 @@
         <v>6</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>40</v>
@@ -1999,7 +1995,7 @@
         <v>6</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>27</v>
@@ -2023,7 +2019,7 @@
         <v>25</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>27</v>
@@ -2047,7 +2043,7 @@
         <v>6</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>41</v>
@@ -2071,7 +2067,7 @@
         <v>6</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>27</v>
@@ -2095,7 +2091,7 @@
         <v>6</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>42</v>
@@ -2119,7 +2115,7 @@
         <v>6</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G55" s="3" t="s">
         <v>27</v>
@@ -2143,7 +2139,7 @@
         <v>26</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G56" s="3" t="s">
         <v>27</v>
@@ -2167,7 +2163,7 @@
         <v>6</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>27</v>
@@ -2191,7 +2187,7 @@
         <v>6</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>43</v>
@@ -2239,7 +2235,7 @@
         <v>20</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>27</v>
@@ -2263,7 +2259,7 @@
         <v>6</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G61" s="3" t="s">
         <v>44</v>

--- a/escala_medianeira.xlsx
+++ b/escala_medianeira.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lfeli\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A6C67F-5234-434C-A221-D24A91B15DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6582EE-7500-4D42-9EE3-ADE8C64D2F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="117">
   <si>
     <t>Data</t>
   </si>
@@ -485,7 +485,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -587,43 +587,6 @@
     <border>
       <left/>
       <right style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
         <color theme="2"/>
       </right>
       <top/>
@@ -689,17 +652,6 @@
       <left style="thin">
         <color theme="2"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2"/>
-      </left>
       <right style="thin">
         <color theme="0" tint="-0.14999847407452621"/>
       </right>
@@ -726,19 +678,6 @@
       <left style="thin">
         <color theme="0" tint="-0.14999847407452621"/>
       </left>
-      <right style="thin">
-        <color theme="2"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </left>
       <right/>
       <top style="thin">
         <color theme="0" tint="-0.14999847407452621"/>
@@ -750,7 +689,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -768,6 +707,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -780,22 +722,16 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -831,26 +767,23 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -858,28 +791,10 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1186,16 +1101,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G67" sqref="G67"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" style="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5546875" style="5" customWidth="1"/>
     <col min="3" max="3" width="32.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.21875" style="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.21875" style="25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.88671875" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="53" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
@@ -1203,7 +1118,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1212,7 +1127,7 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="22" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -1226,7 +1141,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="18">
+      <c r="A2" s="17">
         <v>46049</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1235,7 +1150,7 @@
       <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="23" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -1250,7 +1165,7 @@
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="18">
+      <c r="A3" s="17">
         <v>46050</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -1259,7 +1174,7 @@
       <c r="C3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="23" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -1274,7 +1189,7 @@
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="18">
+      <c r="A4" s="17">
         <v>46050</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -1283,7 +1198,7 @@
       <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="23" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -1298,7 +1213,7 @@
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="18">
+      <c r="A5" s="17">
         <v>46051</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -1307,7 +1222,7 @@
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="23" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -1322,7 +1237,7 @@
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="18">
+      <c r="A6" s="17">
         <v>46052</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -1331,7 +1246,7 @@
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="23" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -1346,7 +1261,7 @@
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="18">
+      <c r="A7" s="17">
         <v>46052</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -1355,7 +1270,7 @@
       <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="23" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -1370,7 +1285,7 @@
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="18">
+      <c r="A8" s="17">
         <v>46053</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -1379,7 +1294,7 @@
       <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="23" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -1394,7 +1309,7 @@
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="18">
+      <c r="A9" s="17">
         <v>46053</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -1403,7 +1318,7 @@
       <c r="C9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="23" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="4" t="s">
@@ -1418,7 +1333,7 @@
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="18">
+      <c r="A10" s="17">
         <v>46054</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1427,7 +1342,7 @@
       <c r="C10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="23" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -1444,7 +1359,7 @@
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="18">
+      <c r="A11" s="17">
         <v>46054</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1453,7 +1368,7 @@
       <c r="C11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="23" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -1470,7 +1385,7 @@
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="18">
+      <c r="A12" s="17">
         <v>46054</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -1479,10 +1394,10 @@
       <c r="C12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F12" s="5" t="s">
@@ -1496,7 +1411,7 @@
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="18">
+      <c r="A13" s="17">
         <v>46054</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -1505,7 +1420,7 @@
       <c r="C13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="23" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -1522,7 +1437,7 @@
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="18">
+      <c r="A14" s="17">
         <v>46054</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -1531,7 +1446,7 @@
       <c r="C14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="23" t="s">
         <v>43</v>
       </c>
       <c r="E14" s="3" t="s">
@@ -1548,7 +1463,7 @@
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="18">
+      <c r="A15" s="17">
         <v>46054</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -1557,7 +1472,7 @@
       <c r="C15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="23" t="s">
         <v>7</v>
       </c>
       <c r="E15" s="3" t="s">
@@ -1574,16 +1489,16 @@
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="34.200000000000003" x14ac:dyDescent="0.3">
-      <c r="A16" s="18">
+      <c r="A16" s="17">
         <v>46056</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="9" t="s">
         <v>64</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="23" t="s">
         <v>5</v>
       </c>
       <c r="E16" s="3" t="s">
@@ -1600,7 +1515,7 @@
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="18">
+      <c r="A17" s="17">
         <v>46057</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -1609,7 +1524,7 @@
       <c r="C17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="23" t="s">
         <v>5</v>
       </c>
       <c r="E17" s="3" t="s">
@@ -1626,7 +1541,7 @@
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="18">
+      <c r="A18" s="17">
         <v>46057</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -1635,7 +1550,7 @@
       <c r="C18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="23" t="s">
         <v>5</v>
       </c>
       <c r="E18" s="3" t="s">
@@ -1652,7 +1567,7 @@
       <c r="J18" s="5"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="18">
+      <c r="A19" s="17">
         <v>46058</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -1661,7 +1576,7 @@
       <c r="C19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="23" t="s">
         <v>5</v>
       </c>
       <c r="E19" s="3" t="s">
@@ -1678,16 +1593,16 @@
       <c r="J19" s="5"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="20">
+      <c r="A20" s="19">
         <v>46059</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="25" t="s">
+      <c r="C20" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="24" t="s">
         <v>42</v>
       </c>
       <c r="E20" s="3" t="s">
@@ -1704,16 +1619,16 @@
       <c r="J20" s="5"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="20">
+      <c r="A21" s="19">
         <v>46059</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="D21" s="26" t="s">
         <v>5</v>
       </c>
       <c r="E21" s="3" t="s">
@@ -1730,16 +1645,16 @@
       <c r="J21" s="5"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="20">
+      <c r="A22" s="19">
         <v>46059</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="27" t="s">
+      <c r="D22" s="26" t="s">
         <v>5</v>
       </c>
       <c r="E22" s="3" t="s">
@@ -1756,7 +1671,7 @@
       <c r="J22" s="5"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="18">
+      <c r="A23" s="17">
         <v>46060</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -1765,7 +1680,7 @@
       <c r="C23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="24" t="s">
+      <c r="D23" s="23" t="s">
         <v>7</v>
       </c>
       <c r="E23" s="3" t="s">
@@ -1782,7 +1697,7 @@
       <c r="J23" s="5"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="18">
+      <c r="A24" s="17">
         <v>46060</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -1791,7 +1706,7 @@
       <c r="C24" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="24" t="s">
+      <c r="D24" s="23" t="s">
         <v>7</v>
       </c>
       <c r="E24" s="3" t="s">
@@ -1808,7 +1723,7 @@
       <c r="J24" s="5"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="18">
+      <c r="A25" s="17">
         <v>46061</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -1817,7 +1732,7 @@
       <c r="C25" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="23" t="s">
         <v>8</v>
       </c>
       <c r="E25" s="3" t="s">
@@ -1834,7 +1749,7 @@
       <c r="J25" s="5"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="18">
+      <c r="A26" s="17">
         <v>46061</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -1843,10 +1758,10 @@
       <c r="C26" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="8" t="s">
         <v>69</v>
       </c>
       <c r="F26" s="5" t="s">
@@ -1860,7 +1775,7 @@
       <c r="J26" s="5"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="18">
+      <c r="A27" s="17">
         <v>46061</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -1869,7 +1784,7 @@
       <c r="C27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="24" t="s">
+      <c r="D27" s="23" t="s">
         <v>9</v>
       </c>
       <c r="E27" s="3" t="s">
@@ -1886,7 +1801,7 @@
       <c r="J27" s="5"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="18">
+      <c r="A28" s="17">
         <v>46061</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -1895,7 +1810,7 @@
       <c r="C28" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="24" t="s">
+      <c r="D28" s="23" t="s">
         <v>10</v>
       </c>
       <c r="E28" s="3" t="s">
@@ -1912,7 +1827,7 @@
       <c r="J28" s="5"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="18">
+      <c r="A29" s="17">
         <v>46061</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -1921,7 +1836,7 @@
       <c r="C29" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="24" t="s">
+      <c r="D29" s="23" t="s">
         <v>43</v>
       </c>
       <c r="E29" s="3" t="s">
@@ -1938,7 +1853,7 @@
       <c r="J29" s="5"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="18">
+      <c r="A30" s="17">
         <v>46061</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -1947,7 +1862,7 @@
       <c r="C30" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="D30" s="23" t="s">
         <v>7</v>
       </c>
       <c r="E30" s="3" t="s">
@@ -1964,7 +1879,7 @@
       <c r="J30" s="5"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="18">
+      <c r="A31" s="17">
         <v>46063</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -1973,7 +1888,7 @@
       <c r="C31" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="24" t="s">
+      <c r="D31" s="23" t="s">
         <v>5</v>
       </c>
       <c r="E31" s="3" t="s">
@@ -1990,19 +1905,19 @@
       <c r="J31" s="5"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="21">
+      <c r="A32" s="20">
         <v>46064</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="22" t="s">
+      <c r="C32" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="E32" s="11" t="s">
         <v>79</v>
       </c>
       <c r="F32" s="5" t="s">
@@ -2016,7 +1931,7 @@
       <c r="J32" s="5"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="18">
+      <c r="A33" s="17">
         <v>46065</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -2025,7 +1940,7 @@
       <c r="C33" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="24" t="s">
+      <c r="D33" s="23" t="s">
         <v>5</v>
       </c>
       <c r="E33" s="3" t="s">
@@ -2042,7 +1957,7 @@
       <c r="J33" s="5"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="18">
+      <c r="A34" s="17">
         <v>46066</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -2051,7 +1966,7 @@
       <c r="C34" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="24" t="s">
+      <c r="D34" s="23" t="s">
         <v>5</v>
       </c>
       <c r="E34" s="3" t="s">
@@ -2068,7 +1983,7 @@
       <c r="J34" s="5"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="18">
+      <c r="A35" s="17">
         <v>46066</v>
       </c>
       <c r="B35" s="3" t="s">
@@ -2077,7 +1992,7 @@
       <c r="C35" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="24" t="s">
+      <c r="D35" s="23" t="s">
         <v>5</v>
       </c>
       <c r="E35" s="3" t="s">
@@ -2094,7 +2009,7 @@
       <c r="J35" s="5"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="18">
+      <c r="A36" s="17">
         <v>46067</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -2103,7 +2018,7 @@
       <c r="C36" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D36" s="24" t="s">
+      <c r="D36" s="23" t="s">
         <v>7</v>
       </c>
       <c r="E36" s="3" t="s">
@@ -2120,7 +2035,7 @@
       <c r="J36" s="5"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="18">
+      <c r="A37" s="17">
         <v>46067</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -2129,7 +2044,7 @@
       <c r="C37" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D37" s="24" t="s">
+      <c r="D37" s="23" t="s">
         <v>7</v>
       </c>
       <c r="E37" s="3" t="s">
@@ -2146,7 +2061,7 @@
       <c r="J37" s="5"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="18">
+      <c r="A38" s="17">
         <v>46068</v>
       </c>
       <c r="B38" s="3" t="s">
@@ -2155,7 +2070,7 @@
       <c r="C38" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D38" s="24" t="s">
+      <c r="D38" s="23" t="s">
         <v>8</v>
       </c>
       <c r="E38" s="3" t="s">
@@ -2172,7 +2087,7 @@
       <c r="J38" s="5"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="18">
+      <c r="A39" s="17">
         <v>46068</v>
       </c>
       <c r="B39" s="3" t="s">
@@ -2181,7 +2096,7 @@
       <c r="C39" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D39" s="24" t="s">
+      <c r="D39" s="23" t="s">
         <v>9</v>
       </c>
       <c r="E39" s="3" t="s">
@@ -2198,7 +2113,7 @@
       <c r="J39" s="5"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="18">
+      <c r="A40" s="17">
         <v>46068</v>
       </c>
       <c r="B40" s="3" t="s">
@@ -2207,10 +2122,10 @@
       <c r="C40" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D40" s="24" t="s">
+      <c r="D40" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" s="8" t="s">
         <v>20</v>
       </c>
       <c r="F40" s="5" t="s">
@@ -2224,7 +2139,7 @@
       <c r="J40" s="5"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="18">
+      <c r="A41" s="17">
         <v>46068</v>
       </c>
       <c r="B41" s="3" t="s">
@@ -2233,7 +2148,7 @@
       <c r="C41" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D41" s="24" t="s">
+      <c r="D41" s="23" t="s">
         <v>10</v>
       </c>
       <c r="E41" s="3" t="s">
@@ -2250,7 +2165,7 @@
       <c r="J41" s="5"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="18">
+      <c r="A42" s="17">
         <v>46068</v>
       </c>
       <c r="B42" s="3" t="s">
@@ -2259,7 +2174,7 @@
       <c r="C42" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D42" s="24" t="s">
+      <c r="D42" s="23" t="s">
         <v>43</v>
       </c>
       <c r="E42" s="3" t="s">
@@ -2276,7 +2191,7 @@
       <c r="J42" s="5"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="18">
+      <c r="A43" s="17">
         <v>46068</v>
       </c>
       <c r="B43" s="3" t="s">
@@ -2285,7 +2200,7 @@
       <c r="C43" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D43" s="24" t="s">
+      <c r="D43" s="23" t="s">
         <v>7</v>
       </c>
       <c r="E43" s="3" t="s">
@@ -2302,7 +2217,7 @@
       <c r="J43" s="5"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="18">
+      <c r="A44" s="17">
         <v>46070</v>
       </c>
       <c r="B44" s="3" t="s">
@@ -2311,7 +2226,7 @@
       <c r="C44" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D44" s="24" t="s">
+      <c r="D44" s="23" t="s">
         <v>5</v>
       </c>
       <c r="E44" s="3" t="s">
@@ -2331,22 +2246,22 @@
       <c r="A45" s="32">
         <v>46071</v>
       </c>
-      <c r="B45" s="34" t="s">
+      <c r="B45" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C45" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="D45" s="36" t="s">
+      <c r="C45" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="E45" s="34" t="s">
+      <c r="E45" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="G45" s="43" t="s">
+      <c r="G45" s="35" t="s">
         <v>25</v>
       </c>
       <c r="H45" s="5"/>
@@ -2354,15 +2269,27 @@
       <c r="J45" s="5"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="33"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="15" t="s">
+      <c r="A46" s="32">
+        <v>46071</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C46" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F46" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="G46" s="44"/>
+      <c r="G46" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="H46" s="28"/>
       <c r="I46" s="28"/>
       <c r="J46" s="29"/>
@@ -2371,13 +2298,13 @@
       <c r="A47" s="32">
         <v>46071</v>
       </c>
-      <c r="B47" s="34" t="s">
+      <c r="B47" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C47" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="D47" s="39" t="s">
+      <c r="C47" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="27" t="s">
         <v>5</v>
       </c>
       <c r="E47" s="13" t="s">
@@ -2386,29 +2313,40 @@
       <c r="F47" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="G47" s="43" t="s">
+      <c r="G47" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="H47" s="26"/>
-      <c r="I47" s="26"/>
-      <c r="J47" s="26"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="33"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="42"/>
-      <c r="D48" s="40"/>
-      <c r="E48" s="38"/>
-      <c r="F48" s="16" t="s">
+      <c r="A48" s="32">
+        <v>46071</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C48" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F48" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="G48" s="44"/>
-      <c r="H48" s="30"/>
+      <c r="G48" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="I48" s="30"/>
       <c r="J48" s="31"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="18">
+      <c r="A49" s="17">
         <v>46072</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -2417,7 +2355,7 @@
       <c r="C49" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D49" s="24" t="s">
+      <c r="D49" s="23" t="s">
         <v>5</v>
       </c>
       <c r="E49" s="3" t="s">
@@ -2429,12 +2367,12 @@
       <c r="G49" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H49" s="26"/>
-      <c r="I49" s="26"/>
-      <c r="J49" s="26"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="25"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="18">
+      <c r="A50" s="17">
         <v>46073</v>
       </c>
       <c r="B50" s="3" t="s">
@@ -2443,7 +2381,7 @@
       <c r="C50" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D50" s="24" t="s">
+      <c r="D50" s="23" t="s">
         <v>5</v>
       </c>
       <c r="E50" s="3" t="s">
@@ -2455,12 +2393,12 @@
       <c r="G50" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H50" s="26"/>
-      <c r="I50" s="26"/>
-      <c r="J50" s="26"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="25"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="18">
+      <c r="A51" s="17">
         <v>46073</v>
       </c>
       <c r="B51" s="3" t="s">
@@ -2469,7 +2407,7 @@
       <c r="C51" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D51" s="24" t="s">
+      <c r="D51" s="23" t="s">
         <v>5</v>
       </c>
       <c r="E51" s="3" t="s">
@@ -2486,7 +2424,7 @@
       <c r="J51" s="5"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="18">
+      <c r="A52" s="17">
         <v>46074</v>
       </c>
       <c r="B52" s="3" t="s">
@@ -2495,7 +2433,7 @@
       <c r="C52" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D52" s="24" t="s">
+      <c r="D52" s="23" t="s">
         <v>7</v>
       </c>
       <c r="E52" s="3" t="s">
@@ -2512,7 +2450,7 @@
       <c r="J52" s="5"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="18">
+      <c r="A53" s="17">
         <v>46074</v>
       </c>
       <c r="B53" s="3" t="s">
@@ -2521,7 +2459,7 @@
       <c r="C53" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D53" s="24" t="s">
+      <c r="D53" s="23" t="s">
         <v>5</v>
       </c>
       <c r="E53" s="3" t="s">
@@ -2538,7 +2476,7 @@
       <c r="J53" s="5"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="18">
+      <c r="A54" s="17">
         <v>46075</v>
       </c>
       <c r="B54" s="3" t="s">
@@ -2547,7 +2485,7 @@
       <c r="C54" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D54" s="24" t="s">
+      <c r="D54" s="23" t="s">
         <v>8</v>
       </c>
       <c r="E54" s="3" t="s">
@@ -2564,7 +2502,7 @@
       <c r="J54" s="5"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="18">
+      <c r="A55" s="17">
         <v>46075</v>
       </c>
       <c r="B55" s="3" t="s">
@@ -2573,10 +2511,10 @@
       <c r="C55" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D55" s="24" t="s">
+      <c r="D55" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E55" s="7" t="s">
+      <c r="E55" s="8" t="s">
         <v>18</v>
       </c>
       <c r="F55" s="5" t="s">
@@ -2590,7 +2528,7 @@
       <c r="J55" s="5"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="18">
+      <c r="A56" s="17">
         <v>46075</v>
       </c>
       <c r="B56" s="3" t="s">
@@ -2599,7 +2537,7 @@
       <c r="C56" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D56" s="24" t="s">
+      <c r="D56" s="23" t="s">
         <v>9</v>
       </c>
       <c r="E56" s="3" t="s">
@@ -2616,7 +2554,7 @@
       <c r="J56" s="5"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" s="18">
+      <c r="A57" s="17">
         <v>46075</v>
       </c>
       <c r="B57" s="3" t="s">
@@ -2625,7 +2563,7 @@
       <c r="C57" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D57" s="24" t="s">
+      <c r="D57" s="23" t="s">
         <v>10</v>
       </c>
       <c r="E57" s="3" t="s">
@@ -2642,7 +2580,7 @@
       <c r="J57" s="5"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="18">
+      <c r="A58" s="17">
         <v>46075</v>
       </c>
       <c r="B58" s="3" t="s">
@@ -2651,7 +2589,7 @@
       <c r="C58" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D58" s="24" t="s">
+      <c r="D58" s="23" t="s">
         <v>43</v>
       </c>
       <c r="E58" s="3" t="s">
@@ -2668,7 +2606,7 @@
       <c r="J58" s="5"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" s="18">
+      <c r="A59" s="17">
         <v>46075</v>
       </c>
       <c r="B59" s="3" t="s">
@@ -2677,7 +2615,7 @@
       <c r="C59" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D59" s="24" t="s">
+      <c r="D59" s="23" t="s">
         <v>7</v>
       </c>
       <c r="E59" s="3" t="s">
@@ -2694,7 +2632,7 @@
       <c r="J59" s="5"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A60" s="18">
+      <c r="A60" s="17">
         <v>46077</v>
       </c>
       <c r="B60" s="3" t="s">
@@ -2703,7 +2641,7 @@
       <c r="C60" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D60" s="24" t="s">
+      <c r="D60" s="23" t="s">
         <v>5</v>
       </c>
       <c r="E60" s="3" t="s">
@@ -2720,7 +2658,7 @@
       <c r="J60" s="5"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A61" s="18">
+      <c r="A61" s="17">
         <v>46078</v>
       </c>
       <c r="B61" s="3" t="s">
@@ -2729,7 +2667,7 @@
       <c r="C61" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D61" s="24" t="s">
+      <c r="D61" s="23" t="s">
         <v>5</v>
       </c>
       <c r="E61" s="3" t="s">
@@ -2746,7 +2684,7 @@
       <c r="J61" s="5"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A62" s="18">
+      <c r="A62" s="17">
         <v>46078</v>
       </c>
       <c r="B62" s="3" t="s">
@@ -2755,7 +2693,7 @@
       <c r="C62" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D62" s="24" t="s">
+      <c r="D62" s="23" t="s">
         <v>5</v>
       </c>
       <c r="E62" s="3" t="s">
@@ -2772,7 +2710,7 @@
       <c r="J62" s="5"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A63" s="18">
+      <c r="A63" s="17">
         <v>46079</v>
       </c>
       <c r="B63" s="3" t="s">
@@ -2781,7 +2719,7 @@
       <c r="C63" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D63" s="24" t="s">
+      <c r="D63" s="23" t="s">
         <v>5</v>
       </c>
       <c r="E63" s="3" t="s">
@@ -2798,7 +2736,7 @@
       <c r="J63" s="5"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A64" s="18">
+      <c r="A64" s="17">
         <v>46080</v>
       </c>
       <c r="B64" s="3" t="s">
@@ -2807,7 +2745,7 @@
       <c r="C64" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D64" s="24" t="s">
+      <c r="D64" s="23" t="s">
         <v>5</v>
       </c>
       <c r="E64" s="3" t="s">
@@ -2824,7 +2762,7 @@
       <c r="J64" s="5"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A65" s="18">
+      <c r="A65" s="17">
         <v>46080</v>
       </c>
       <c r="B65" s="3" t="s">
@@ -2833,7 +2771,7 @@
       <c r="C65" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D65" s="24" t="s">
+      <c r="D65" s="23" t="s">
         <v>5</v>
       </c>
       <c r="E65" s="3" t="s">
@@ -2850,7 +2788,7 @@
       <c r="J65" s="5"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A66" s="18">
+      <c r="A66" s="17">
         <v>46081</v>
       </c>
       <c r="B66" s="3" t="s">
@@ -2859,7 +2797,7 @@
       <c r="C66" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D66" s="24" t="s">
+      <c r="D66" s="23" t="s">
         <v>7</v>
       </c>
       <c r="E66" s="3" t="s">
@@ -2876,7 +2814,7 @@
       <c r="J66" s="5"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A67" s="18">
+      <c r="A67" s="17">
         <v>46081</v>
       </c>
       <c r="B67" s="3" t="s">
@@ -2885,7 +2823,7 @@
       <c r="C67" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D67" s="24" t="s">
+      <c r="D67" s="23" t="s">
         <v>5</v>
       </c>
       <c r="E67" s="3" t="s">
@@ -2905,20 +2843,6 @@
       <c r="B68" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="D47:D48"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/escala_medianeira.xlsx
+++ b/escala_medianeira.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lfeli\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA29A81-7FC0-4C15-9678-D2FB248B75D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D615CD0-146A-4B36-98B4-4B5848A736CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -516,7 +516,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -557,23 +557,18 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -876,10 +871,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H69"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="98" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1074,7 +1069,7 @@
       <c r="F8" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="14" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1085,7 +1080,7 @@
       <c r="B9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="15" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -1103,12 +1098,12 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="13">
-        <v>46086</v>
+        <v>46085</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="15" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -1126,12 +1121,12 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
-        <v>46087</v>
+        <v>46086</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="15" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -1149,7 +1144,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="13">
-        <v>46088</v>
+        <v>46087</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>34</v>
@@ -1172,7 +1167,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="13">
-        <v>46088</v>
+        <v>46087</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>34</v>
@@ -1193,9 +1188,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="13">
-        <v>46089</v>
+        <v>46088</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>35</v>
@@ -1212,13 +1207,13 @@
       <c r="F14" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="16" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="13">
-        <v>46089</v>
+        <v>46088</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>35</v>
@@ -1235,13 +1230,13 @@
       <c r="F15" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="G15" s="16" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="13">
-        <v>46089</v>
+        <v>46088</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>35</v>
@@ -1258,13 +1253,13 @@
       <c r="F16" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G16" s="18" t="s">
+      <c r="G16" s="16" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="13">
-        <v>46090</v>
+        <v>46089</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>38</v>
@@ -1281,13 +1276,13 @@
       <c r="F17" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="G17" s="18" t="s">
+      <c r="G17" s="16" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="13">
-        <v>46090</v>
+        <v>46089</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>38</v>
@@ -1304,13 +1299,13 @@
       <c r="F18" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G18" s="18" t="s">
+      <c r="G18" s="16" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="13">
-        <v>46090</v>
+        <v>46089</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>38</v>
@@ -1327,13 +1322,13 @@
       <c r="F19" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G19" s="18" t="s">
+      <c r="G19" s="16" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="13">
-        <v>46090</v>
+        <v>46089</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>38</v>
@@ -1350,13 +1345,13 @@
       <c r="F20" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="G20" s="18" t="s">
+      <c r="G20" s="16" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="13">
-        <v>46090</v>
+        <v>46089</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>38</v>
@@ -1373,13 +1368,13 @@
       <c r="F21" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G21" s="18" t="s">
+      <c r="G21" s="16" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="13">
-        <v>46090</v>
+        <v>46089</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>38</v>
@@ -1396,7 +1391,7 @@
       <c r="F22" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G22" s="18" t="s">
+      <c r="G22" s="16" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1419,7 +1414,7 @@
       <c r="F23" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G23" s="18" t="s">
+      <c r="G23" s="16" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1442,7 +1437,7 @@
       <c r="F24" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G24" s="18" t="s">
+      <c r="G24" s="16" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1465,7 +1460,7 @@
       <c r="F25" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G25" s="18" t="s">
+      <c r="G25" s="16" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1488,7 +1483,7 @@
       <c r="F26" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G26" s="18" t="s">
+      <c r="G26" s="16" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1511,7 +1506,7 @@
       <c r="F27" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G27" s="18" t="s">
+      <c r="G27" s="16" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1534,7 +1529,7 @@
       <c r="F28" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G28" s="18" t="s">
+      <c r="G28" s="16" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1557,7 +1552,7 @@
       <c r="F29" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G29" s="18" t="s">
+      <c r="G29" s="16" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1580,7 +1575,7 @@
       <c r="F30" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G30" s="18" t="s">
+      <c r="G30" s="16" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1603,7 +1598,7 @@
       <c r="F31" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G31" s="18" t="s">
+      <c r="G31" s="16" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1626,11 +1621,11 @@
       <c r="F32" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G32" s="18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G32" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="13">
         <v>46096</v>
       </c>
@@ -1649,11 +1644,11 @@
       <c r="F33" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G33" s="18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G33" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="13">
         <v>46096</v>
       </c>
@@ -1672,11 +1667,11 @@
       <c r="F34" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="G34" s="18" t="s">
+      <c r="G34" s="16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="13">
         <v>46096</v>
       </c>
@@ -1695,11 +1690,11 @@
       <c r="F35" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G35" s="18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G35" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="13">
         <v>46096</v>
       </c>
@@ -1718,12 +1713,11 @@
       <c r="F36" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G36" s="18" t="s">
+      <c r="G36" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H36" s="14"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="13">
         <v>46099</v>
       </c>
@@ -1742,12 +1736,11 @@
       <c r="F37" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G37" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H37" s="14"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G37" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="13">
         <v>46099</v>
       </c>
@@ -1766,12 +1759,11 @@
       <c r="F38" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G38" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H38" s="14"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G38" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="13">
         <v>46100</v>
       </c>
@@ -1790,12 +1782,11 @@
       <c r="F39" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="G39" s="18" t="s">
+      <c r="G39" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H39" s="14"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="13">
         <v>46101</v>
       </c>
@@ -1814,12 +1805,11 @@
       <c r="F40" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G40" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H40" s="14"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G40" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="13">
         <v>46101</v>
       </c>
@@ -1838,12 +1828,11 @@
       <c r="F41" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G41" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H41" s="14"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G41" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="13">
         <v>46102</v>
       </c>
@@ -1862,12 +1851,11 @@
       <c r="F42" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="G42" s="18" t="s">
+      <c r="G42" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="H42" s="14"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="13">
         <v>46102</v>
       </c>
@@ -1886,12 +1874,11 @@
       <c r="F43" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G43" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H43" s="14"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G43" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="13">
         <v>46103</v>
       </c>
@@ -1910,12 +1897,11 @@
       <c r="F44" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="G44" s="14" t="s">
+      <c r="G44" t="s">
         <v>26</v>
       </c>
-      <c r="H44" s="14"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="13">
         <v>46103</v>
       </c>
@@ -1934,12 +1920,11 @@
       <c r="F45" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G45" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H45" s="14"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G45" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="13">
         <v>46103</v>
       </c>
@@ -1958,12 +1943,11 @@
       <c r="F46" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G46" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H46" s="14"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G46" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="13">
         <v>46103</v>
       </c>
@@ -1982,12 +1966,11 @@
       <c r="F47" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G47" s="14" t="s">
+      <c r="G47" t="s">
         <v>25</v>
       </c>
-      <c r="H47" s="14"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="13">
         <v>46103</v>
       </c>
@@ -2006,12 +1989,11 @@
       <c r="F48" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G48" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H48" s="14"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G48" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="13">
         <v>46103</v>
       </c>
@@ -2030,12 +2012,11 @@
       <c r="F49" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="G49" s="14" t="s">
+      <c r="G49" t="s">
         <v>92</v>
       </c>
-      <c r="H49" s="14"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="13">
         <v>46105</v>
       </c>
@@ -2054,12 +2035,11 @@
       <c r="F50" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="G50" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H50" s="14"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G50" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="13">
         <v>46106</v>
       </c>
@@ -2078,12 +2058,11 @@
       <c r="F51" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G51" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H51" s="14"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G51" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="13">
         <v>46106</v>
       </c>
@@ -2102,12 +2081,11 @@
       <c r="F52" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G52" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H52" s="14"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G52" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="13">
         <v>46107</v>
       </c>
@@ -2126,12 +2104,11 @@
       <c r="F53" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G53" s="14" t="s">
+      <c r="G53" t="s">
         <v>28</v>
       </c>
-      <c r="H53" s="14"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="13">
         <v>46108</v>
       </c>
@@ -2150,12 +2127,11 @@
       <c r="F54" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G54" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H54" s="14"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G54" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="13">
         <v>46108</v>
       </c>
@@ -2174,12 +2150,11 @@
       <c r="F55" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="G55" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H55" s="14"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G55" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="13">
         <v>46109</v>
       </c>
@@ -2198,12 +2173,11 @@
       <c r="F56" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G56" s="14" t="s">
+      <c r="G56" t="s">
         <v>55</v>
       </c>
-      <c r="H56" s="14"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="13">
         <v>46109</v>
       </c>
@@ -2222,12 +2196,11 @@
       <c r="F57" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G57" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H57" s="14"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G57" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="13">
         <v>46110</v>
       </c>
@@ -2246,12 +2219,11 @@
       <c r="F58" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="G58" s="18" t="s">
+      <c r="G58" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="H58" s="14"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="13">
         <v>46110</v>
       </c>
@@ -2270,12 +2242,11 @@
       <c r="F59" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G59" s="18" t="s">
+      <c r="G59" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H59" s="14"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="13">
         <v>46110</v>
       </c>
@@ -2294,12 +2265,11 @@
       <c r="F60" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="G60" s="18" t="s">
+      <c r="G60" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="H60" s="14"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="13">
         <v>46111</v>
       </c>
@@ -2318,11 +2288,11 @@
       <c r="F61" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="G61" s="18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G61" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="13">
         <v>46112</v>
       </c>
@@ -2341,11 +2311,11 @@
       <c r="F62" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="G62" s="18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G62" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="13">
         <v>46113</v>
       </c>
@@ -2364,12 +2334,11 @@
       <c r="F63" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="G63" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H63" s="14"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G63" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="13">
         <v>46114</v>
       </c>
@@ -2388,12 +2357,11 @@
       <c r="F64" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="G64" s="18" t="s">
+      <c r="G64" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="H64" s="14"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="13">
         <v>46115</v>
       </c>
@@ -2409,15 +2377,14 @@
       <c r="E65" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F65" s="19" t="s">
+      <c r="F65" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="G65" s="18" t="s">
+      <c r="G65" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="H65" s="14"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="13">
         <v>46116</v>
       </c>
@@ -2436,12 +2403,11 @@
       <c r="F66" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="G66" s="18" t="s">
+      <c r="G66" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="H66" s="14"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="13">
         <v>46117</v>
       </c>
@@ -2460,12 +2426,11 @@
       <c r="F67" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="G67" s="18" t="s">
+      <c r="G67" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="H67" s="20"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="13">
         <v>46117</v>
       </c>
@@ -2484,12 +2449,11 @@
       <c r="F68" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="G68" s="18" t="s">
+      <c r="G68" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="H68" s="20"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="13">
         <v>46117</v>
       </c>
@@ -2508,10 +2472,9 @@
       <c r="F69" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="G69" s="18" t="s">
+      <c r="G69" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="H69" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
